--- a/VerveStacks_USA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
+++ b/VerveStacks_USA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\VerveStacks_USA\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051736B5-DC5D-489D-A436-3AEF6D5C43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013158A3-3A1F-4B20-825A-C11AD53A3634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="59">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -132,9 +132,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>~TFM_FILL-R: w=weo_pg; hcol=year</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -156,55 +153,55 @@
     <t>ncap_iled</t>
   </si>
   <si>
+    <t>USD25</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
+  <si>
     <t>scenario</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
     <t>time_slice</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>year2</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>USD25</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -537,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
@@ -546,13 +543,13 @@
     <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.86328125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
@@ -560,13 +557,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -575,69 +572,69 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L2">
         <v>2700</v>
@@ -649,42 +646,42 @@
         <v>2700</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <v>1110</v>
@@ -696,42 +693,42 @@
         <v>480</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L4">
         <v>4060</v>
@@ -743,42 +740,42 @@
         <v>1980</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>1500</v>
@@ -790,42 +787,42 @@
         <v>1370</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L6">
         <v>70</v>
@@ -837,42 +834,42 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L7">
         <v>16</v>
@@ -884,42 +881,42 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L8">
         <v>120</v>
@@ -931,42 +928,42 @@
         <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L9">
         <v>38</v>
@@ -978,42 +975,42 @@
         <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1025,42 +1022,42 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -1072,42 +1069,42 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1119,42 +1116,42 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -1166,7 +1163,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1176,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:X41"/>
+  <dimension ref="C4:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1196,20 +1193,15 @@
     <col min="14" max="14" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
@@ -1232,13 +1224,13 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
@@ -1252,13 +1244,13 @@
         <v>8.76</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
         <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
@@ -1272,13 +1264,13 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
         <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
@@ -1316,21 +1308,21 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s">
         <v>47</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>48</v>
-      </c>
-      <c r="S12" t="s">
-        <v>49</v>
       </c>
       <c r="T12" t="s">
         <v>25</v>
@@ -1341,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
@@ -1360,7 +1352,7 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13" t="s">
         <v>23</v>
@@ -1383,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
@@ -1402,7 +1394,7 @@
         <v>EN[_]SPV*</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X14" t="s">
         <v>14</v>
@@ -1425,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
@@ -1444,7 +1436,7 @@
         <v>EN[_]WOF*</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X15" t="s">
         <v>16</v>
@@ -1461,7 +1453,7 @@
         <v>8.76</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
@@ -1480,7 +1472,7 @@
         <v>EN[_]WON*</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X16" t="s">
         <v>17</v>
@@ -1497,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
@@ -1535,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
@@ -1573,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
@@ -1611,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
@@ -1649,7 +1641,7 @@
         <v>0.25</v>
       </c>
       <c r="P21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P21,weo_pg!$D$2:$D$18,Misc!$W21)</f>
@@ -1687,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P22,weo_pg!$D$2:$D$18,Misc!$W22)</f>
@@ -1716,7 +1708,7 @@
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P23,weo_pg!$D$2:$D$18,Misc!$W23)</f>
@@ -1745,7 +1737,7 @@
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q24">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P24,weo_pg!$D$2:$D$18,Misc!$W24)</f>
